--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Enho-Gpr19.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Enho-Gpr19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Gpr19</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2243206666666667</v>
+        <v>0.07501633333333334</v>
       </c>
       <c r="H2">
-        <v>0.6729620000000001</v>
+        <v>0.225049</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1517413757181704</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1517413757181704</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7809476666666667</v>
+        <v>1.093908333333333</v>
       </c>
       <c r="N2">
-        <v>2.342843</v>
+        <v>3.281725</v>
       </c>
       <c r="O2">
-        <v>0.1051298645003767</v>
+        <v>0.1455464035672057</v>
       </c>
       <c r="P2">
-        <v>0.1051298645003767</v>
+        <v>0.1455464035672057</v>
       </c>
       <c r="Q2">
-        <v>0.1751827012184445</v>
+        <v>0.08206099216944444</v>
       </c>
       <c r="R2">
-        <v>1.576644310966</v>
+        <v>0.738548929525</v>
       </c>
       <c r="S2">
-        <v>0.1051298645003767</v>
+        <v>0.02208541150811983</v>
       </c>
       <c r="T2">
-        <v>0.1051298645003767</v>
+        <v>0.02208541150811982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2243206666666667</v>
+        <v>0.07501633333333334</v>
       </c>
       <c r="H3">
-        <v>0.6729620000000001</v>
+        <v>0.225049</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1517413757181704</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1517413757181704</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.182944000000001</v>
       </c>
       <c r="O3">
-        <v>0.3671913969199687</v>
+        <v>0.3629183035726166</v>
       </c>
       <c r="P3">
-        <v>0.3671913969199687</v>
+        <v>0.3629183035726166</v>
       </c>
       <c r="Q3">
-        <v>0.6118678177920002</v>
+        <v>0.204618151584</v>
       </c>
       <c r="R3">
-        <v>5.506810360128001</v>
+        <v>1.841563364256</v>
       </c>
       <c r="S3">
-        <v>0.3671913969199687</v>
+        <v>0.05506972265741344</v>
       </c>
       <c r="T3">
-        <v>0.3671913969199687</v>
+        <v>0.05506972265741343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2243206666666667</v>
+        <v>0.07501633333333334</v>
       </c>
       <c r="H4">
-        <v>0.6729620000000001</v>
+        <v>0.225049</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1517413757181704</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1517413757181704</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.217063333333333</v>
+        <v>2.690583</v>
       </c>
       <c r="N4">
-        <v>6.651190000000001</v>
+        <v>8.071749000000001</v>
       </c>
       <c r="O4">
-        <v>0.2984573458256743</v>
+        <v>0.3579867409509296</v>
       </c>
       <c r="P4">
-        <v>0.2984573458256743</v>
+        <v>0.3579867409509296</v>
       </c>
       <c r="Q4">
-        <v>0.4973331249755557</v>
+        <v>0.201837671189</v>
       </c>
       <c r="R4">
-        <v>4.475998124780001</v>
+        <v>1.816539040701</v>
       </c>
       <c r="S4">
-        <v>0.2984573458256743</v>
+        <v>0.05432140056075836</v>
       </c>
       <c r="T4">
-        <v>0.2984573458256743</v>
+        <v>0.05432140056075835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2243206666666667</v>
+        <v>0.07501633333333334</v>
       </c>
       <c r="H5">
-        <v>0.6729620000000001</v>
+        <v>0.225049</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1517413757181704</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1517413757181704</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.702750333333333</v>
+        <v>1.003734</v>
       </c>
       <c r="N5">
-        <v>5.108251</v>
+        <v>3.011202</v>
       </c>
       <c r="O5">
-        <v>0.2292213927539803</v>
+        <v>0.1335485519092481</v>
       </c>
       <c r="P5">
-        <v>0.2292213927539803</v>
+        <v>0.1335485519092481</v>
       </c>
       <c r="Q5">
-        <v>0.3819620899402223</v>
+        <v>0.075296444322</v>
       </c>
       <c r="R5">
-        <v>3.437658809462</v>
+        <v>0.677667998898</v>
       </c>
       <c r="S5">
-        <v>0.2292213927539803</v>
+        <v>0.02026484099187879</v>
       </c>
       <c r="T5">
-        <v>0.2292213927539803</v>
+        <v>0.02026484099187879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.4193533333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.25806</v>
+      </c>
+      <c r="I6">
+        <v>0.8482586242818295</v>
+      </c>
+      <c r="J6">
+        <v>0.8482586242818295</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.093908333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.281725</v>
+      </c>
+      <c r="O6">
+        <v>0.1455464035672057</v>
+      </c>
+      <c r="P6">
+        <v>0.1455464035672057</v>
+      </c>
+      <c r="Q6">
+        <v>0.4587341059444444</v>
+      </c>
+      <c r="R6">
+        <v>4.128606953499999</v>
+      </c>
+      <c r="S6">
+        <v>0.1234609920590859</v>
+      </c>
+      <c r="T6">
+        <v>0.1234609920590859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.4193533333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.25806</v>
+      </c>
+      <c r="I7">
+        <v>0.8482586242818295</v>
+      </c>
+      <c r="J7">
+        <v>0.8482586242818295</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.727648</v>
+      </c>
+      <c r="N7">
+        <v>8.182944000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.3629183035726166</v>
+      </c>
+      <c r="P7">
+        <v>0.3629183035726166</v>
+      </c>
+      <c r="Q7">
+        <v>1.14384828096</v>
+      </c>
+      <c r="R7">
+        <v>10.29463452864</v>
+      </c>
+      <c r="S7">
+        <v>0.3078485809152031</v>
+      </c>
+      <c r="T7">
+        <v>0.3078485809152031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.4193533333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.25806</v>
+      </c>
+      <c r="I8">
+        <v>0.8482586242818295</v>
+      </c>
+      <c r="J8">
+        <v>0.8482586242818295</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.690583</v>
+      </c>
+      <c r="N8">
+        <v>8.071749000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.3579867409509296</v>
+      </c>
+      <c r="P8">
+        <v>0.3579867409509296</v>
+      </c>
+      <c r="Q8">
+        <v>1.12830494966</v>
+      </c>
+      <c r="R8">
+        <v>10.15474454694</v>
+      </c>
+      <c r="S8">
+        <v>0.3036653403901712</v>
+      </c>
+      <c r="T8">
+        <v>0.3036653403901712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.4193533333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.25806</v>
+      </c>
+      <c r="I9">
+        <v>0.8482586242818295</v>
+      </c>
+      <c r="J9">
+        <v>0.8482586242818295</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.003734</v>
+      </c>
+      <c r="N9">
+        <v>3.011202</v>
+      </c>
+      <c r="O9">
+        <v>0.1335485519092481</v>
+      </c>
+      <c r="P9">
+        <v>0.1335485519092481</v>
+      </c>
+      <c r="Q9">
+        <v>0.4209191986799999</v>
+      </c>
+      <c r="R9">
+        <v>3.78827278812</v>
+      </c>
+      <c r="S9">
+        <v>0.1132837109173692</v>
+      </c>
+      <c r="T9">
+        <v>0.1132837109173692</v>
       </c>
     </row>
   </sheetData>
